--- a/biology/Médecine/Edmond_Reboul/Edmond_Reboul.xlsx
+++ b/biology/Médecine/Edmond_Reboul/Edmond_Reboul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edmond Reboul, né le 5 mars 1923 à Béziers (Hérault) et décédé le 10 mars 2010 au Vigan (Gard), est un écrivain français.
 Médecin général (2 S), ancien enfant de troupe, spécialiste des hôpitaux, Edmond Reboul fut aussi écrivain, poète, essayiste et conférencier.
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Béziers en 1923, il entre en 1942 à l'École du service de santé militaire et en sort major de sa promotion.
 Docteur en médecine en 1948, prix de thèse, il accomplit une longue carrière dans l'armée comme médecin au Sahara, en Allemagne, au Maroc, à Lille, Marseille, et Lyon. Exerçant dans les hôpitaux, il franchit ainsi tous les degrés de la hiérarchie jusqu'au grade de médecin-général (1977).
-Le 4 juin 1974 il est élu membre de l'académie des Sciences, Belles-Lettres et Arts de Lyon[2]. 
+Le 4 juin 1974 il est élu membre de l'académie des Sciences, Belles-Lettres et Arts de Lyon. 
 Parallèlement à sa carrière militaire, Edmond Reboul a publié une quarantaine d'ouvrages qui lui ont valu le grand prix Vérité pour Si toubib (éditions Julliard), le grand prix des poètes français en 1986, et d'être deux fois lauréat de l'Académie française.
 </t>
         </is>
@@ -546,9 +560,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le Gourara, étude historique, géographique et médicale, (Inst. Pasteur, Alger), 1953, (prix Larrey de l'Académie de Médecine).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gourara, étude historique, géographique et médicale, (Inst. Pasteur, Alger), 1953, (prix Larrey de l'Académie de Médecine).
 Si toubib, (Julliard), grand prix Vérité, 1958
 Mosaïques, (Regain) 1963.
 Escale, (Nouvelle Pléiade), 1966.
@@ -583,7 +599,7 @@
 Fleurs de saisons, poèmes, (Manoirante, 2009).
 Triptyque d'Hiver, poèmes, (Les Presses du Midi, Toulon), 2009.
 Le Déserteur Triomphant, récit, (L'Harmattan) 2010.
-[3]</t>
+</t>
         </is>
       </c>
     </row>
@@ -611,7 +627,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de la Légion d'honneur
  Croix de guerre 1939-1945
@@ -626,7 +644,7 @@
 Secrétaire général et président de l'Académie des sciences, belles-lettres et arts de Lyon
 Président fondateur de la Conférence nationale des académies des sciences, lettres et arts, sous l'égide de l'Institut de France
 Membre fondateur de l'Académie des Hauts Cantons (fauteuil I)
-Membre non résidant de l'Académie de Nîmes[4]
+Membre non résidant de l'Académie de Nîmes
 Membre honoraire de plusieurs académies et sociétés savantes
 Membre honoraire du PEN club
 Membre honoraire de l'Association des écrivains combattants
